--- a/DZ_Mikhaylov/sostav.xlsx
+++ b/DZ_Mikhaylov/sostav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\10 semestr\OTR\Results_DZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\10 semestr\OTR\Results_DZ\Terra_100_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8DBBF63-A49B-47E4-B186-01B7AAE113A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3566C9EE-8429-4494-81F9-2BC582F20EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1608" windowWidth="12156" windowHeight="10752"/>
+    <workbookView xWindow="360" yWindow="1020" windowWidth="12156" windowHeight="10752"/>
   </bookViews>
   <sheets>
     <sheet name="sostav" sheetId="1" r:id="rId1"/>
@@ -1996,88 +1996,88 @@
     </row>
     <row r="3" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>3495.02</v>
+        <v>3481.37</v>
       </c>
       <c r="C3" s="2">
-        <v>8.5508799999999996E-2</v>
+        <v>0.102379</v>
       </c>
       <c r="D3" s="2">
-        <v>9.3357600000000005</v>
+        <v>9.3893299999999993</v>
       </c>
       <c r="E3" s="2">
         <v>-1773.75</v>
       </c>
       <c r="F3" s="2">
-        <v>-2712.33</v>
+        <v>-2709.86</v>
       </c>
       <c r="G3" s="2">
-        <v>38.286200000000001</v>
+        <v>38.343899999999998</v>
       </c>
       <c r="H3" s="2">
-        <v>1.9146300000000001</v>
+        <v>1.9139900000000001</v>
       </c>
       <c r="I3" s="2">
-        <v>1.1811100000000001</v>
+        <v>1.18154</v>
       </c>
       <c r="J3" s="2">
-        <v>3.3650600000000002</v>
+        <v>3.4473199999999999</v>
       </c>
       <c r="K3" s="2">
-        <v>1.1507000000000001</v>
+        <v>1.15066</v>
       </c>
       <c r="L3" s="2">
-        <v>3.5520000000000001E-4</v>
+        <v>3.6089999999999999E-4</v>
       </c>
       <c r="M3" s="2">
-        <v>3.503E-4</v>
+        <v>3.5560000000000002E-4</v>
       </c>
       <c r="N3" s="2">
-        <v>8.5580399999999998E-8</v>
+        <v>1.0282399999999999E-7</v>
       </c>
       <c r="O3" s="2">
-        <v>19.729500000000002</v>
+        <v>19.699100000000001</v>
       </c>
       <c r="P3" s="2">
-        <v>421.41699999999997</v>
+        <v>422.06799999999998</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.0526300000000002</v>
+        <v>2.05166</v>
       </c>
       <c r="R3" s="2">
-        <v>1.2583500000000001</v>
+        <v>1.2589999999999999</v>
       </c>
       <c r="S3" s="2">
-        <v>3.4492799999999999</v>
+        <v>3.5388199999999999</v>
       </c>
       <c r="T3" s="2">
-        <v>1.20923</v>
+        <v>1.2077899999999999</v>
       </c>
       <c r="U3" s="2">
-        <v>9.6100000000000005E-5</v>
+        <v>9.59E-5</v>
       </c>
       <c r="V3" s="2">
-        <v>0.41724099999999997</v>
+        <v>0.41608699999999998</v>
       </c>
       <c r="W3" s="2">
-        <v>0.96772999999999998</v>
+        <v>1.00326</v>
       </c>
       <c r="X3" s="2">
-        <v>0.47284999999999999</v>
+        <v>0.47266999999999998</v>
       </c>
       <c r="Y3" s="2">
-        <v>0.34259000000000001</v>
+        <v>0.33812799999999998</v>
       </c>
       <c r="Z3" s="2">
-        <v>1079.07</v>
+        <v>1077.44</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.30332599999999998</v>
+        <v>0.30324800000000002</v>
       </c>
       <c r="AB3" s="2">
-        <v>6.1377899999999999E-2</v>
+        <v>6.1434900000000001E-2</v>
       </c>
       <c r="AC3" s="2">
         <v>0</v>
@@ -2101,507 +2101,507 @@
         <v>456</v>
       </c>
       <c r="AJ3" s="2">
-        <v>1.0574399999999999E-2</v>
+        <v>1.18678E-2</v>
       </c>
       <c r="AK3" s="2">
-        <v>1.6042000000000001E-3</v>
+        <v>1.8018999999999999E-3</v>
       </c>
       <c r="AL3" s="2">
-        <v>1.0634999999999999</v>
+        <v>1.1291199999999999</v>
       </c>
       <c r="AM3" s="2">
-        <v>11.245200000000001</v>
+        <v>11.223599999999999</v>
       </c>
       <c r="AN3" s="2">
-        <v>0.19226399999999999</v>
+        <v>0.20261399999999999</v>
       </c>
       <c r="AO3" s="2">
-        <v>2.3499999999999999E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="AP3" s="2">
-        <v>4.4708300000000003</v>
+        <v>4.4626200000000003</v>
       </c>
       <c r="AQ3" s="2">
-        <v>1.11E-5</v>
+        <v>1.0499999999999999E-5</v>
       </c>
       <c r="AR3" s="2">
-        <v>0.30904799999999999</v>
+        <v>0.32830399999999998</v>
       </c>
       <c r="AS3" s="2">
-        <v>8.2700000000000004E-4</v>
+        <v>8.0380000000000002E-4</v>
       </c>
       <c r="AT3" s="2">
-        <v>1.7780000000000001E-4</v>
+        <v>1.8320000000000001E-4</v>
       </c>
       <c r="AU3" s="2">
-        <v>1.93213E-9</v>
+        <v>1.9232599999999998E-9</v>
       </c>
       <c r="AV3" s="2">
-        <v>4.9522100000000002E-9</v>
+        <v>4.6042100000000002E-9</v>
       </c>
       <c r="AW3" s="2">
-        <v>4.9616899999999999</v>
+        <v>4.9517499999999997</v>
       </c>
       <c r="AX3" s="2">
-        <v>2.4800000000000001E-4</v>
+        <v>2.388E-4</v>
       </c>
       <c r="AY3" s="2">
-        <v>2.0210000000000001E-4</v>
+        <v>2.075E-4</v>
       </c>
       <c r="AZ3" s="2">
-        <v>2.9704299999999999</v>
+        <v>2.9703200000000001</v>
       </c>
       <c r="BA3" s="2">
-        <v>1.7546499999999999E-9</v>
+        <v>1.5058200000000001E-9</v>
       </c>
       <c r="BB3" s="2">
-        <v>1.35636E-2</v>
+        <v>1.42007E-2</v>
       </c>
       <c r="BC3" s="2">
-        <v>9.556340000000001E-7</v>
+        <v>9.7380999999999996E-7</v>
       </c>
       <c r="BD3" s="2">
-        <v>2.8577600000000001E-6</v>
+        <v>2.7261E-6</v>
       </c>
       <c r="BE3" s="2">
-        <v>5.5979999999999995E-4</v>
+        <v>5.3410000000000003E-4</v>
       </c>
       <c r="BF3" s="2">
-        <v>4.8799999999999999E-4</v>
+        <v>4.3300000000000001E-4</v>
       </c>
       <c r="BG3" s="2">
-        <v>1.1371E-3</v>
+        <v>9.4950000000000004E-4</v>
       </c>
       <c r="BH3" s="2">
-        <v>1.00971E-7</v>
+        <v>8.1213699999999999E-8</v>
       </c>
       <c r="BI3" s="2">
-        <v>1.3775500000000001E-10</v>
+        <v>9.3624899999999994E-11</v>
       </c>
       <c r="BJ3" s="2">
-        <v>2.3809399999999998E-9</v>
+        <v>1.8979599999999999E-9</v>
       </c>
       <c r="BK3" s="2">
-        <v>4.3000000000000002E-5</v>
+        <v>4.0899999999999998E-5</v>
       </c>
       <c r="BL3" s="2">
-        <v>5.4819899999999997E-7</v>
+        <v>5.1660799999999996E-7</v>
       </c>
       <c r="BM3" s="2">
-        <v>7.38564E-12</v>
+        <v>6.7704600000000002E-12</v>
       </c>
       <c r="BN3" s="2">
-        <v>2.02546E-8</v>
+        <v>1.6179100000000001E-8</v>
       </c>
       <c r="BO3" s="2">
-        <v>2.4436600000000002E-6</v>
+        <v>2.3084300000000002E-6</v>
       </c>
       <c r="BP3" s="2">
-        <v>1.44476E-11</v>
+        <v>1.3256800000000001E-11</v>
       </c>
       <c r="BQ3" s="2">
-        <v>2.9082699999999999E-7</v>
+        <v>2.6851600000000002E-7</v>
       </c>
       <c r="BR3" s="2">
-        <v>1.0712200000000001E-10</v>
+        <v>8.2509700000000003E-11</v>
       </c>
       <c r="BS3" s="2">
-        <v>9.0978899999999996</v>
+        <v>9.0971799999999998</v>
       </c>
       <c r="BT3" s="2">
-        <v>0.43486999999999998</v>
+        <v>0.43597799999999998</v>
       </c>
       <c r="BU3" s="2">
-        <v>2.3016099999999999E-7</v>
+        <v>1.8405899999999999E-7</v>
       </c>
       <c r="BV3" s="2">
-        <v>7.0911800000000001E-10</v>
+        <v>4.8956799999999998E-10</v>
       </c>
       <c r="BW3" s="2">
-        <v>4.0123099999999997E-7</v>
+        <v>3.4320299999999998E-7</v>
       </c>
       <c r="BX3" s="2">
-        <v>1.7182900000000001E-6</v>
+        <v>1.3793300000000001E-6</v>
       </c>
       <c r="BY3" s="2">
-        <v>9.9379500000000003E-6</v>
+        <v>7.5092E-6</v>
       </c>
       <c r="BZ3" s="2">
-        <v>7.9788799999999994E-6</v>
+        <v>5.6430400000000003E-6</v>
       </c>
       <c r="CA3" s="2">
-        <v>1.4905399999999999E-8</v>
+        <v>1.0873799999999999E-8</v>
       </c>
       <c r="CB3" s="2">
-        <v>2.9611000000000002E-7</v>
+        <v>2.05165E-7</v>
       </c>
       <c r="CC3" s="2">
-        <v>1.7114499999999999E-9</v>
+        <v>1.07778E-9</v>
       </c>
       <c r="CD3" s="2">
-        <v>6.59771E-10</v>
+        <v>3.88964E-10</v>
       </c>
       <c r="CE3" s="2">
-        <v>3.5071600000000002E-12</v>
+        <v>1.8714500000000001E-12</v>
       </c>
       <c r="CF3" s="2">
-        <v>5.6308599999999997E-11</v>
+        <v>3.4696099999999998E-11</v>
       </c>
       <c r="CG3" s="2">
-        <v>1.6178E-3</v>
+        <v>1.444E-3</v>
       </c>
       <c r="CH3" s="2">
-        <v>1.159E-4</v>
+        <v>1.0340000000000001E-4</v>
       </c>
       <c r="CI3" s="2">
-        <v>1.471E-4</v>
+        <v>1.22E-4</v>
       </c>
       <c r="CJ3" s="2">
-        <v>4.7599999999999998E-5</v>
+        <v>3.9499999999999998E-5</v>
       </c>
       <c r="CK3" s="2">
-        <v>1.5055600000000001E-8</v>
+        <v>1.1189100000000001E-8</v>
       </c>
       <c r="CL3" s="2">
-        <v>4.5259700000000002E-11</v>
+        <v>3.06736E-11</v>
       </c>
       <c r="CM3" s="2">
-        <v>4.60576E-12</v>
+        <v>2.7087999999999999E-12</v>
       </c>
       <c r="CN3" s="2">
-        <v>4.9730299999999996E-7</v>
+        <v>4.2914399999999999E-7</v>
       </c>
       <c r="CO3" s="2">
-        <v>8.0951600000000004E-9</v>
+        <v>6.4626100000000003E-9</v>
       </c>
       <c r="CP3" s="2">
-        <v>1.24886E-11</v>
+        <v>9.1319099999999992E-12</v>
       </c>
       <c r="CQ3" s="2">
-        <v>1.06554E-10</v>
+        <v>7.7231899999999999E-11</v>
       </c>
       <c r="CR3" s="2">
-        <v>1.8391199999999999E-11</v>
+        <v>1.24473E-11</v>
       </c>
       <c r="CS3" s="2">
-        <v>1.175E-4</v>
+        <v>1.043E-4</v>
       </c>
       <c r="CT3" s="2">
-        <v>1.5118000000000001E-7</v>
+        <v>1.2377300000000001E-7</v>
       </c>
       <c r="CU3" s="2">
-        <v>1.74007E-7</v>
+        <v>1.3920600000000001E-7</v>
       </c>
       <c r="CV3" s="2">
-        <v>5.7296000000000002E-7</v>
+        <v>4.2872700000000002E-7</v>
       </c>
       <c r="CW3" s="2">
-        <v>1.42488E-7</v>
+        <v>9.9764099999999998E-8</v>
       </c>
       <c r="CX3" s="2">
-        <v>1.29083E-8</v>
+        <v>9.5792499999999996E-9</v>
       </c>
       <c r="CY3" s="2">
-        <v>1.54493E-9</v>
+        <v>1.06838E-9</v>
       </c>
       <c r="CZ3" s="2">
-        <v>1.9738600000000001E-11</v>
+        <v>1.33862E-11</v>
       </c>
       <c r="DA3" s="2">
-        <v>4.4694200000000001E-9</v>
+        <v>3.0619200000000001E-9</v>
       </c>
       <c r="DB3" s="2">
-        <v>3.7391100000000001E-11</v>
+        <v>2.18197E-11</v>
       </c>
       <c r="DC3" s="2">
-        <v>1.0900000000000001E-5</v>
+        <v>9.0122699999999997E-6</v>
       </c>
       <c r="DD3" s="2">
-        <v>1.2E-5</v>
+        <v>1.0499999999999999E-5</v>
       </c>
       <c r="DE3" s="2">
-        <v>1.0972000000000001E-7</v>
+        <v>8.7807300000000003E-8</v>
       </c>
       <c r="DF3" s="2">
-        <v>6.25697E-10</v>
+        <v>4.5266500000000001E-10</v>
       </c>
       <c r="DG3" s="2">
-        <v>1.9391799999999999E-9</v>
+        <v>1.3288899999999999E-9</v>
       </c>
       <c r="DH3" s="2">
-        <v>1.84574E-6</v>
+        <v>1.6153E-6</v>
       </c>
       <c r="DI3" s="2">
-        <v>9.1679999999999995E-4</v>
+        <v>7.6130000000000002E-4</v>
       </c>
       <c r="DJ3" s="2">
-        <v>5.3712600000000003E-6</v>
+        <v>4.3607600000000004E-6</v>
       </c>
       <c r="DK3" s="2">
-        <v>4.7448E-10</v>
+        <v>3.1852E-10</v>
       </c>
       <c r="DL3" s="2">
-        <v>6.0005099999999997E-11</v>
+        <v>3.4826999999999998E-11</v>
       </c>
       <c r="DM3" s="2">
-        <v>3.0392500000000002E-6</v>
+        <v>2.4639400000000001E-6</v>
       </c>
       <c r="DN3" s="2">
-        <v>3.62957E-6</v>
+        <v>2.9714800000000001E-6</v>
       </c>
       <c r="DO3" s="2">
-        <v>4.0429999999999997E-3</v>
+        <v>4.4412999999999996E-3</v>
       </c>
       <c r="DP3" s="2">
-        <v>2.4441899999999999E-7</v>
+        <v>2.5077499999999999E-7</v>
       </c>
       <c r="DQ3" s="2">
-        <v>3.6300000000000001E-5</v>
+        <v>3.9400000000000002E-5</v>
       </c>
       <c r="DR3" s="2">
-        <v>2.9808E-3</v>
+        <v>3.2233000000000001E-3</v>
       </c>
       <c r="DS3" s="2">
-        <v>1.4249999999999999E-4</v>
+        <v>1.5420000000000001E-4</v>
       </c>
       <c r="DT3" s="2">
-        <v>2.9749099999999999</v>
+        <v>2.9741499999999998</v>
       </c>
       <c r="DU3" s="2">
-        <v>1.07772E-6</v>
+        <v>1.14726E-6</v>
       </c>
       <c r="DV3" s="2">
-        <v>1.5736000000000001E-3</v>
+        <v>1.5924999999999999E-3</v>
       </c>
       <c r="DW3" s="2">
-        <v>4.8900000000000003E-5</v>
+        <v>4.5099999999999998E-5</v>
       </c>
       <c r="DX3" s="2">
-        <v>1.8102399999999999E-7</v>
+        <v>1.5281400000000001E-7</v>
       </c>
       <c r="DY3" s="2">
-        <v>5.9649300000000002E-2</v>
+        <v>6.1492100000000001E-2</v>
       </c>
       <c r="DZ3" s="2">
-        <v>1.8700000000000001E-5</v>
+        <v>1.88E-5</v>
       </c>
       <c r="EA3" s="2">
-        <v>5.5909999999999998E-4</v>
+        <v>5.7359999999999996E-4</v>
       </c>
       <c r="EB3" s="2">
-        <v>1.12129E-2</v>
+        <v>1.0680800000000001E-2</v>
       </c>
       <c r="EC3" s="2">
-        <v>1.7660000000000001E-4</v>
+        <v>1.56E-4</v>
       </c>
       <c r="ED3" s="2">
-        <v>0.20880699999999999</v>
+        <v>0.21732599999999999</v>
       </c>
       <c r="EE3" s="2">
-        <v>0.11056199999999999</v>
+        <v>0.106888</v>
       </c>
       <c r="EF3" s="2">
-        <v>1.1232799999999999E-2</v>
+        <v>1.0137800000000001E-2</v>
       </c>
       <c r="EG3" s="2">
-        <v>5.0878400000000001E-9</v>
+        <v>3.48304E-9</v>
       </c>
       <c r="EH3" s="2">
-        <v>1.53466E-2</v>
+        <v>1.5944799999999999E-2</v>
       </c>
       <c r="EI3" s="2">
-        <v>7.5420000000000001E-4</v>
+        <v>7.1869999999999996E-4</v>
       </c>
       <c r="EJ3" s="2">
-        <v>4.5621999999999998E-3</v>
+        <v>4.3093999999999997E-3</v>
       </c>
       <c r="EK3" s="2">
-        <v>1.7399999999999999E-5</v>
+        <v>1.5099999999999999E-5</v>
       </c>
       <c r="EL3" s="2">
-        <v>1.0081000000000001E-3</v>
+        <v>8.8960000000000005E-4</v>
       </c>
       <c r="EM3" s="2">
-        <v>7.2226200000000004E-2</v>
+        <v>6.9273399999999999E-2</v>
       </c>
       <c r="EN3" s="2">
-        <v>3.2929000000000001E-3</v>
+        <v>2.9315999999999999E-3</v>
       </c>
       <c r="EO3" s="2">
-        <v>1.8609899999999999E-2</v>
+        <v>1.6680500000000001E-2</v>
       </c>
       <c r="EP3" s="2">
-        <v>7.3762499999999999E-6</v>
+        <v>7.2727800000000004E-6</v>
       </c>
       <c r="EQ3" s="2">
-        <v>4.5654299999999996E-9</v>
+        <v>4.0463600000000001E-9</v>
       </c>
       <c r="ER3" s="2">
-        <v>1.55524E-11</v>
+        <v>1.16778E-11</v>
       </c>
       <c r="ES3" s="2">
-        <v>5.1554699999999996E-12</v>
+        <v>5.3549999999999997E-12</v>
       </c>
       <c r="ET3" s="2">
-        <v>1.8358399999999999E-6</v>
+        <v>2.0851499999999998E-6</v>
       </c>
       <c r="EU3" s="2">
-        <v>1.18469E-8</v>
+        <v>1.29322E-8</v>
       </c>
       <c r="EV3" s="2">
-        <v>1.9792199999999999E-10</v>
+        <v>2.13315E-10</v>
       </c>
       <c r="EW3" s="2">
-        <v>1.0088699999999999E-12</v>
+        <v>9.4030599999999997E-13</v>
       </c>
       <c r="EX3" s="2">
-        <v>8.4384299999999999E-8</v>
+        <v>8.6334800000000001E-8</v>
       </c>
       <c r="EY3" s="2">
-        <v>1.7379700000000001E-10</v>
+        <v>1.4290899999999999E-10</v>
       </c>
       <c r="EZ3" s="2">
-        <v>3.6538799999999998E-12</v>
+        <v>3.41015E-12</v>
       </c>
       <c r="FA3" s="2">
-        <v>2.6330700000000002E-7</v>
+        <v>2.7118900000000001E-7</v>
       </c>
       <c r="FB3" s="2">
-        <v>5.7284600000000001E-11</v>
+        <v>5.7236099999999998E-11</v>
       </c>
       <c r="FC3" s="2">
-        <v>5.4216000000000002E-10</v>
+        <v>4.8103900000000002E-10</v>
       </c>
       <c r="FD3" s="2">
-        <v>2.07318E-7</v>
+        <v>1.7660000000000001E-7</v>
       </c>
       <c r="FE3" s="2">
-        <v>1.209E-4</v>
+        <v>1.2850000000000001E-4</v>
       </c>
       <c r="FF3" s="2">
-        <v>8.6167999999999994E-9</v>
+        <v>8.38311E-9</v>
       </c>
       <c r="FG3" s="2">
-        <v>2.0112400000000001E-11</v>
+        <v>2.0180800000000001E-11</v>
       </c>
       <c r="FH3" s="2">
-        <v>1.44446E-9</v>
+        <v>1.05049E-9</v>
       </c>
       <c r="FI3" s="2">
-        <v>8.4157399999999998E-12</v>
+        <v>7.3474599999999999E-12</v>
       </c>
       <c r="FJ3" s="2">
-        <v>4.1218199999999999E-12</v>
+        <v>3.6157700000000001E-12</v>
       </c>
       <c r="FK3" s="2">
-        <v>2.86638E-8</v>
+        <v>2.41189E-8</v>
       </c>
       <c r="FL3" s="2">
-        <v>2.2660100000000001E-8</v>
+        <v>1.9894100000000001E-8</v>
       </c>
       <c r="FM3" s="2">
-        <v>1.2520000000000001E-4</v>
+        <v>1.3339999999999999E-4</v>
       </c>
       <c r="FN3" s="2">
-        <v>2.3750699999999999E-6</v>
+        <v>2.6115899999999998E-6</v>
       </c>
       <c r="FO3" s="2">
-        <v>3.3353299999999997E-8</v>
+        <v>3.6441199999999999E-8</v>
       </c>
       <c r="FP3" s="2">
-        <v>5.9741999999999998E-3</v>
+        <v>6.5642000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>6.92035</v>
+        <v>5.7690700000000001</v>
       </c>
       <c r="B4" s="2">
-        <v>3289.1</v>
+        <v>3278.53</v>
       </c>
       <c r="C4" s="2">
-        <v>0.138654</v>
+        <v>0.166015</v>
       </c>
       <c r="D4" s="2">
-        <v>9.3357600000000005</v>
+        <v>9.3893299999999993</v>
       </c>
       <c r="E4" s="2">
-        <v>-2320.11</v>
+        <v>-2318.62</v>
       </c>
       <c r="F4" s="2">
-        <v>-3192.66</v>
+        <v>-3189.27</v>
       </c>
       <c r="G4" s="2">
-        <v>38.164200000000001</v>
+        <v>38.210999999999999</v>
       </c>
       <c r="H4" s="2">
-        <v>1.90909</v>
+        <v>1.90856</v>
       </c>
       <c r="I4" s="2">
-        <v>1.18038</v>
+        <v>1.1807300000000001</v>
       </c>
       <c r="J4" s="2">
-        <v>3.0900300000000001</v>
+        <v>3.1611600000000002</v>
       </c>
       <c r="K4" s="2">
-        <v>1.1509199999999999</v>
+        <v>1.15062</v>
       </c>
       <c r="L4" s="2">
-        <v>3.6230000000000002E-4</v>
+        <v>3.6729999999999998E-4</v>
       </c>
       <c r="M4" s="2">
-        <v>3.5849999999999999E-4</v>
+        <v>3.6319999999999999E-4</v>
       </c>
       <c r="N4" s="2">
-        <v>1.47746E-7</v>
+        <v>1.77435E-7</v>
       </c>
       <c r="O4" s="2">
-        <v>19.560099999999998</v>
+        <v>19.536000000000001</v>
       </c>
       <c r="P4" s="2">
-        <v>425.06799999999998</v>
+        <v>425.59100000000001</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.0514299999999999</v>
+        <v>2.0506000000000002</v>
       </c>
       <c r="R4" s="2">
-        <v>1.26136</v>
+        <v>1.2619</v>
       </c>
       <c r="S4" s="2">
-        <v>3.27888</v>
+        <v>3.3614299999999999</v>
       </c>
       <c r="T4" s="2">
-        <v>1.20974</v>
+        <v>1.208</v>
       </c>
       <c r="U4" s="2">
-        <v>9.2600000000000001E-5</v>
+        <v>9.2399999999999996E-5</v>
       </c>
       <c r="V4" s="2">
-        <v>0.39973399999999998</v>
+        <v>0.39882600000000001</v>
       </c>
       <c r="W4" s="2">
-        <v>0.87326000000000004</v>
+        <v>0.90921600000000002</v>
       </c>
       <c r="X4" s="2">
-        <v>0.475354</v>
+        <v>0.47515200000000002</v>
       </c>
       <c r="Y4" s="2">
-        <v>0.34778700000000001</v>
+        <v>0.34165899999999999</v>
       </c>
       <c r="Z4" s="2">
-        <v>1045.33</v>
+        <v>1043.9000000000001</v>
       </c>
       <c r="AA4" s="2">
-        <v>0.31368299999999999</v>
+        <v>0.31359399999999998</v>
       </c>
       <c r="AB4" s="2">
-        <v>5.8923499999999997E-2</v>
+        <v>5.8968E-2</v>
       </c>
       <c r="AC4" s="2">
-        <v>1.1387700000000001</v>
+        <v>1.13794</v>
       </c>
       <c r="AD4" s="2">
-        <v>1045.33</v>
+        <v>1043.9000000000001</v>
       </c>
       <c r="AE4" s="2">
         <v>1</v>
@@ -2610,424 +2610,424 @@
         <v>1</v>
       </c>
       <c r="AG4" s="2">
-        <v>1.326E-4</v>
+        <v>1.5899999999999999E-4</v>
       </c>
       <c r="AH4" s="2">
-        <v>1963.25</v>
+        <v>1961.37</v>
       </c>
       <c r="AI4" s="2">
-        <v>1591.7</v>
+        <v>1590.33</v>
       </c>
       <c r="AJ4" s="2">
-        <v>5.8079999999999998E-3</v>
+        <v>6.5722000000000003E-3</v>
       </c>
       <c r="AK4" s="2">
-        <v>8.5019999999999996E-4</v>
+        <v>9.6279999999999998E-4</v>
       </c>
       <c r="AL4" s="2">
-        <v>0.85647700000000004</v>
+        <v>0.912798</v>
       </c>
       <c r="AM4" s="2">
-        <v>11.4336</v>
+        <v>11.414999999999999</v>
       </c>
       <c r="AN4" s="2">
-        <v>0.13086</v>
+        <v>0.138573</v>
       </c>
       <c r="AO4" s="2">
-        <v>9.42853E-6</v>
+        <v>9.7279399999999999E-6</v>
       </c>
       <c r="AP4" s="2">
-        <v>4.3357999999999999</v>
+        <v>4.3298399999999999</v>
       </c>
       <c r="AQ4" s="2">
-        <v>4.6586900000000001E-6</v>
+        <v>4.4575699999999999E-6</v>
       </c>
       <c r="AR4" s="2">
-        <v>0.25986599999999999</v>
+        <v>0.276947</v>
       </c>
       <c r="AS4" s="2">
-        <v>5.9040000000000004E-4</v>
+        <v>5.754E-4</v>
       </c>
       <c r="AT4" s="2">
-        <v>8.7499999999999999E-5</v>
+        <v>9.0799999999999998E-5</v>
       </c>
       <c r="AU4" s="2">
-        <v>5.2170099999999998E-10</v>
+        <v>5.2545600000000003E-10</v>
       </c>
       <c r="AV4" s="2">
-        <v>1.65421E-9</v>
+        <v>1.5509299999999999E-9</v>
       </c>
       <c r="AW4" s="2">
-        <v>5.21258</v>
+        <v>5.2009999999999996</v>
       </c>
       <c r="AX4" s="2">
-        <v>1.404E-4</v>
+        <v>1.3579999999999999E-4</v>
       </c>
       <c r="AY4" s="2">
-        <v>9.3599999999999998E-5</v>
+        <v>9.6899999999999997E-5</v>
       </c>
       <c r="AZ4" s="2">
-        <v>2.9738600000000002</v>
+        <v>2.97377</v>
       </c>
       <c r="BA4" s="2">
-        <v>5.0727199999999996E-10</v>
+        <v>4.3892199999999999E-10</v>
       </c>
       <c r="BB4" s="2">
-        <v>8.1308999999999999E-3</v>
+        <v>8.5611000000000003E-3</v>
       </c>
       <c r="BC4" s="2">
-        <v>3.54563E-7</v>
+        <v>3.64701E-7</v>
       </c>
       <c r="BD4" s="2">
-        <v>1.2858499999999999E-6</v>
+        <v>1.2343500000000001E-6</v>
       </c>
       <c r="BE4" s="2">
-        <v>2.7119999999999998E-4</v>
+        <v>2.6039999999999999E-4</v>
       </c>
       <c r="BF4" s="2">
-        <v>2.5129999999999998E-4</v>
+        <v>2.2379999999999999E-4</v>
       </c>
       <c r="BG4" s="2">
-        <v>7.5319999999999998E-4</v>
+        <v>6.2920000000000001E-4</v>
       </c>
       <c r="BH4" s="2">
-        <v>3.6010399999999998E-8</v>
+        <v>2.9119699999999999E-8</v>
       </c>
       <c r="BI4" s="2">
-        <v>3.82761E-11</v>
+        <v>2.6118200000000001E-11</v>
       </c>
       <c r="BJ4" s="2">
-        <v>7.1829999999999999E-10</v>
+        <v>5.7621100000000003E-10</v>
       </c>
       <c r="BK4" s="2">
-        <v>1.8899999999999999E-5</v>
+        <v>1.8099999999999999E-5</v>
       </c>
       <c r="BL4" s="2">
-        <v>1.9773399999999999E-7</v>
+        <v>1.8783000000000001E-7</v>
       </c>
       <c r="BM4" s="2">
-        <v>1.6331E-12</v>
+        <v>1.5146200000000001E-12</v>
       </c>
       <c r="BN4" s="2">
-        <v>6.2976299999999999E-9</v>
+        <v>5.0623599999999999E-9</v>
       </c>
       <c r="BO4" s="2">
-        <v>9.9660199999999997E-7</v>
+        <v>9.4816599999999999E-7</v>
       </c>
       <c r="BP4" s="2">
-        <v>3.5250800000000002E-12</v>
+        <v>3.2699499999999998E-12</v>
       </c>
       <c r="BQ4" s="2">
-        <v>8.5641700000000004E-8</v>
+        <v>7.9870300000000003E-8</v>
       </c>
       <c r="BR4" s="2">
-        <v>2.0128200000000001E-11</v>
+        <v>1.56632E-11</v>
       </c>
       <c r="BS4" s="2">
-        <v>9.1015899999999998</v>
+        <v>9.1007400000000001</v>
       </c>
       <c r="BT4" s="2">
-        <v>0.432477</v>
+        <v>0.43354799999999999</v>
       </c>
       <c r="BU4" s="2">
-        <v>7.5059100000000003E-8</v>
+        <v>6.0372099999999998E-8</v>
       </c>
       <c r="BV4" s="2">
-        <v>2.4269600000000002E-10</v>
+        <v>1.6784600000000001E-10</v>
       </c>
       <c r="BW4" s="2">
-        <v>1.18244E-7</v>
+        <v>1.02002E-7</v>
       </c>
       <c r="BX4" s="2">
-        <v>6.2178599999999995E-7</v>
+        <v>5.0169499999999997E-7</v>
       </c>
       <c r="BY4" s="2">
-        <v>4.6403600000000002E-6</v>
+        <v>3.5118099999999998E-6</v>
       </c>
       <c r="BZ4" s="2">
-        <v>4.4072699999999997E-6</v>
+        <v>3.1142000000000002E-6</v>
       </c>
       <c r="CA4" s="2">
-        <v>3.9899099999999999E-9</v>
+        <v>2.9280699999999998E-9</v>
       </c>
       <c r="CB4" s="2">
-        <v>1.17987E-7</v>
+        <v>8.1850700000000006E-8</v>
       </c>
       <c r="CC4" s="2">
-        <v>5.0250900000000005E-10</v>
+        <v>3.1708299999999998E-10</v>
       </c>
       <c r="CD4" s="2">
-        <v>2.2913200000000001E-10</v>
+        <v>1.3497E-10</v>
       </c>
       <c r="CE4" s="2">
-        <v>8.4039199999999996E-13</v>
+        <v>4.4867E-13</v>
       </c>
       <c r="CF4" s="2">
-        <v>1.17202E-11</v>
+        <v>7.2548299999999997E-12</v>
       </c>
       <c r="CG4" s="2">
-        <v>8.9470000000000001E-4</v>
+        <v>8.0110000000000001E-4</v>
       </c>
       <c r="CH4" s="2">
-        <v>6.0399999999999998E-5</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="CI4" s="2">
-        <v>8.5900000000000001E-5</v>
+        <v>7.1400000000000001E-5</v>
       </c>
       <c r="CJ4" s="2">
-        <v>2.6599999999999999E-5</v>
+        <v>2.2099999999999998E-5</v>
       </c>
       <c r="CK4" s="2">
-        <v>5.1423499999999997E-9</v>
+        <v>3.8367399999999997E-9</v>
       </c>
       <c r="CL4" s="2">
-        <v>1.2018E-11</v>
+        <v>8.1801399999999995E-12</v>
       </c>
       <c r="CM4" s="2">
-        <v>1.393E-12</v>
+        <v>8.1887300000000004E-13</v>
       </c>
       <c r="CN4" s="2">
-        <v>1.7441199999999999E-7</v>
+        <v>1.51527E-7</v>
       </c>
       <c r="CO4" s="2">
-        <v>2.8748900000000002E-9</v>
+        <v>2.30635E-9</v>
       </c>
       <c r="CP4" s="2">
-        <v>3.82757E-12</v>
+        <v>2.8106300000000001E-12</v>
       </c>
       <c r="CQ4" s="2">
-        <v>2.6595E-11</v>
+        <v>1.93953E-11</v>
       </c>
       <c r="CR4" s="2">
-        <v>5.3939199999999997E-12</v>
+        <v>3.6621400000000004E-12</v>
       </c>
       <c r="CS4" s="2">
-        <v>6.1299999999999999E-5</v>
+        <v>5.4500000000000003E-5</v>
       </c>
       <c r="CT4" s="2">
-        <v>7.6466200000000002E-8</v>
+        <v>6.2719799999999998E-8</v>
       </c>
       <c r="CU4" s="2">
-        <v>6.17954E-8</v>
+        <v>4.9694899999999997E-8</v>
       </c>
       <c r="CV4" s="2">
-        <v>2.3688299999999999E-7</v>
+        <v>1.7765999999999999E-7</v>
       </c>
       <c r="CW4" s="2">
-        <v>6.9137999999999993E-8</v>
+        <v>4.8384499999999999E-8</v>
       </c>
       <c r="CX4" s="2">
-        <v>4.8396400000000001E-9</v>
+        <v>3.6017600000000002E-9</v>
       </c>
       <c r="CY4" s="2">
-        <v>6.3658400000000002E-10</v>
+        <v>4.40484E-10</v>
       </c>
       <c r="CZ4" s="2">
-        <v>6.1986699999999999E-12</v>
+        <v>4.21725E-12</v>
       </c>
       <c r="DA4" s="2">
-        <v>1.5377600000000001E-9</v>
+        <v>1.0557100000000001E-9</v>
       </c>
       <c r="DB4" s="2">
-        <v>1.14169E-11</v>
+        <v>6.6620799999999998E-12</v>
       </c>
       <c r="DC4" s="2">
-        <v>5.9568600000000003E-6</v>
+        <v>4.9175799999999996E-6</v>
       </c>
       <c r="DD4" s="2">
-        <v>4.9473500000000002E-6</v>
+        <v>4.3517899999999997E-6</v>
       </c>
       <c r="DE4" s="2">
-        <v>3.61841E-8</v>
+        <v>2.9121400000000002E-8</v>
       </c>
       <c r="DF4" s="2">
-        <v>1.4320600000000001E-10</v>
+        <v>1.04321E-10</v>
       </c>
       <c r="DG4" s="2">
-        <v>6.1960100000000002E-10</v>
+        <v>4.25726E-10</v>
       </c>
       <c r="DH4" s="2">
-        <v>7.2925099999999997E-7</v>
+        <v>6.41852E-7</v>
       </c>
       <c r="DI4" s="2">
-        <v>5.576E-4</v>
+        <v>4.6349999999999999E-4</v>
       </c>
       <c r="DJ4" s="2">
-        <v>2.2775300000000002E-6</v>
+        <v>1.85599E-6</v>
       </c>
       <c r="DK4" s="2">
-        <v>1.1152900000000001E-10</v>
+        <v>7.5259900000000001E-11</v>
       </c>
       <c r="DL4" s="2">
-        <v>1.5931200000000001E-11</v>
+        <v>9.2551899999999995E-12</v>
       </c>
       <c r="DM4" s="2">
-        <v>1.23177E-6</v>
+        <v>1.00257E-6</v>
       </c>
       <c r="DN4" s="2">
-        <v>1.8206899999999999E-6</v>
+        <v>1.4938899999999999E-6</v>
       </c>
       <c r="DO4" s="2">
-        <v>1.7702E-3</v>
+        <v>1.9637000000000001E-3</v>
       </c>
       <c r="DP4" s="2">
-        <v>3.8474399999999999E-8</v>
+        <v>4.0171499999999997E-8</v>
       </c>
       <c r="DQ4" s="2">
-        <v>1.1800000000000001E-5</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="DR4" s="2">
-        <v>1.0336E-3</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="DS4" s="2">
-        <v>4.7700000000000001E-5</v>
+        <v>5.2299999999999997E-5</v>
       </c>
       <c r="DT4" s="2">
-        <v>3.0764900000000002</v>
+        <v>3.0756199999999998</v>
       </c>
       <c r="DU4" s="2">
-        <v>2.64129E-7</v>
+        <v>2.8496399999999998E-7</v>
       </c>
       <c r="DV4" s="2">
-        <v>6.3009999999999997E-4</v>
+        <v>6.4340000000000003E-4</v>
       </c>
       <c r="DW4" s="2">
-        <v>1.52E-5</v>
+        <v>1.42E-5</v>
       </c>
       <c r="DX4" s="2">
-        <v>4.6039300000000003E-8</v>
+        <v>3.9230199999999999E-8</v>
       </c>
       <c r="DY4" s="2">
-        <v>3.0561899999999999E-2</v>
+        <v>3.1718299999999998E-2</v>
       </c>
       <c r="DZ4" s="2">
-        <v>6.0647999999999999E-6</v>
+        <v>6.1381099999999996E-6</v>
       </c>
       <c r="EA4" s="2">
-        <v>2.5230000000000001E-4</v>
+        <v>2.6069999999999999E-4</v>
       </c>
       <c r="EB4" s="2">
-        <v>5.2534000000000001E-3</v>
+        <v>5.0328999999999999E-3</v>
       </c>
       <c r="EC4" s="2">
-        <v>8.0000000000000007E-5</v>
+        <v>7.0900000000000002E-5</v>
       </c>
       <c r="ED4" s="2">
-        <v>0.13536500000000001</v>
+        <v>0.141565</v>
       </c>
       <c r="EE4" s="2">
-        <v>7.7350799999999997E-2</v>
+        <v>7.4953800000000001E-2</v>
       </c>
       <c r="EF4" s="2">
-        <v>9.1967999999999998E-3</v>
+        <v>8.2945999999999992E-3</v>
       </c>
       <c r="EG4" s="2">
-        <v>2.33626E-9</v>
+        <v>1.59684E-9</v>
       </c>
       <c r="EH4" s="2">
-        <v>9.2175E-3</v>
+        <v>9.6269000000000007E-3</v>
       </c>
       <c r="EI4" s="2">
-        <v>3.994E-4</v>
+        <v>3.8230000000000002E-4</v>
       </c>
       <c r="EJ4" s="2">
-        <v>2.1300999999999998E-3</v>
+        <v>2.0238000000000001E-3</v>
       </c>
       <c r="EK4" s="2">
-        <v>6.5670900000000003E-6</v>
+        <v>5.70371E-6</v>
       </c>
       <c r="EL4" s="2">
-        <v>5.574E-4</v>
+        <v>4.9319999999999995E-4</v>
       </c>
       <c r="EM4" s="2">
-        <v>4.0995200000000002E-2</v>
+        <v>3.94797E-2</v>
       </c>
       <c r="EN4" s="2">
-        <v>1.8395E-3</v>
+        <v>1.6419E-3</v>
       </c>
       <c r="EO4" s="2">
-        <v>1.2575100000000001E-2</v>
+        <v>1.12823E-2</v>
       </c>
       <c r="EP4" s="2">
-        <v>1.90682E-6</v>
+        <v>1.90332E-6</v>
       </c>
       <c r="EQ4" s="2">
-        <v>7.4942999999999996E-10</v>
+        <v>6.7385799999999997E-10</v>
       </c>
       <c r="ER4" s="2">
-        <v>2.0803599999999998E-12</v>
+        <v>1.58172E-12</v>
       </c>
       <c r="ES4" s="2">
-        <v>7.5358899999999995E-13</v>
+        <v>7.9812599999999997E-13</v>
       </c>
       <c r="ET4" s="2">
-        <v>7.2652399999999997E-7</v>
+        <v>8.3554400000000003E-7</v>
       </c>
       <c r="EU4" s="2">
-        <v>2.3596799999999999E-9</v>
+        <v>2.62048E-9</v>
       </c>
       <c r="EV4" s="2">
-        <v>3.06126E-11</v>
+        <v>3.3623200000000002E-11</v>
       </c>
       <c r="EW4" s="2">
-        <v>1.7992299999999999E-13</v>
+        <v>1.7020899999999999E-13</v>
       </c>
       <c r="EX4" s="2">
-        <v>2.1251299999999999E-8</v>
+        <v>2.2048099999999999E-8</v>
       </c>
       <c r="EY4" s="2">
-        <v>4.8088799999999998E-11</v>
+        <v>3.9863400000000003E-11</v>
       </c>
       <c r="EZ4" s="2">
-        <v>6.3385900000000002E-13</v>
+        <v>6.0041299999999998E-13</v>
       </c>
       <c r="FA4" s="2">
-        <v>7.0169499999999998E-8</v>
+        <v>7.3229899999999996E-8</v>
       </c>
       <c r="FB4" s="2">
-        <v>8.9549700000000002E-12</v>
+        <v>9.1023699999999993E-12</v>
       </c>
       <c r="FC4" s="2">
-        <v>1.4215299999999999E-10</v>
+        <v>1.2739300000000001E-10</v>
       </c>
       <c r="FD4" s="2">
-        <v>9.6047100000000005E-8</v>
+        <v>8.2130299999999998E-8</v>
       </c>
       <c r="FE4" s="2">
-        <v>5.7899999999999998E-5</v>
+        <v>6.2100000000000005E-5</v>
       </c>
       <c r="FF4" s="2">
-        <v>2.83454E-9</v>
+        <v>2.7839800000000001E-9</v>
       </c>
       <c r="FG4" s="2">
-        <v>3.28956E-12</v>
+        <v>3.3561600000000001E-12</v>
       </c>
       <c r="FH4" s="2">
-        <v>6.3226499999999999E-10</v>
+        <v>4.6037900000000001E-10</v>
       </c>
       <c r="FI4" s="2">
-        <v>1.71014E-12</v>
+        <v>1.5107E-12</v>
       </c>
       <c r="FJ4" s="2">
-        <v>8.6143200000000004E-13</v>
+        <v>7.6434100000000002E-13</v>
       </c>
       <c r="FK4" s="2">
-        <v>1.09578E-8</v>
+        <v>9.2686E-9</v>
       </c>
       <c r="FL4" s="2">
-        <v>5.5796500000000003E-9</v>
+        <v>4.9502099999999996E-9</v>
       </c>
       <c r="FM4" s="2">
-        <v>5.9200000000000002E-5</v>
+        <v>6.3600000000000001E-5</v>
       </c>
       <c r="FN4" s="2">
-        <v>5.6763600000000001E-7</v>
+        <v>6.3372200000000004E-7</v>
       </c>
       <c r="FO4" s="2">
-        <v>6.8605900000000002E-9</v>
+        <v>7.6185900000000003E-9</v>
       </c>
       <c r="FP4" s="2">
-        <v>2.5032000000000001E-3</v>
+        <v>2.7782000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:172" x14ac:dyDescent="0.3">
@@ -3035,517 +3035,517 @@
         <v>0.1</v>
       </c>
       <c r="B5" s="2">
-        <v>1999.45</v>
+        <v>2058.1799999999998</v>
       </c>
       <c r="C5" s="2">
-        <v>5.7181800000000003</v>
+        <v>5.88802</v>
       </c>
       <c r="D5" s="2">
-        <v>9.3357600000000005</v>
+        <v>9.3893299999999993</v>
       </c>
       <c r="E5" s="2">
-        <v>-5480.93</v>
+        <v>-5372.25</v>
       </c>
       <c r="F5" s="2">
-        <v>-5967.49</v>
+        <v>-5875.76</v>
       </c>
       <c r="G5" s="2">
-        <v>37.639600000000002</v>
+        <v>37.650500000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>1.7492099999999999</v>
+        <v>1.7587299999999999</v>
       </c>
       <c r="I5" s="2">
-        <v>1.1954499999999999</v>
+        <v>1.1942600000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>1.83236</v>
+        <v>1.8702799999999999</v>
       </c>
       <c r="K5" s="2">
-        <v>1.18862</v>
+        <v>1.1857500000000001</v>
       </c>
       <c r="L5" s="2">
-        <v>5.0469999999999996E-4</v>
+        <v>4.9229999999999999E-4</v>
       </c>
       <c r="M5" s="2">
-        <v>5.0449999999999996E-4</v>
+        <v>4.9200000000000003E-4</v>
       </c>
       <c r="N5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="O5" s="2">
-        <v>19.4602</v>
+        <v>19.4544</v>
       </c>
       <c r="P5" s="2">
-        <v>427.25</v>
+        <v>427.37700000000001</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.9316199999999999</v>
+        <v>1.9411099999999999</v>
       </c>
       <c r="R5" s="2">
-        <v>1.2840100000000001</v>
+        <v>1.28233</v>
       </c>
       <c r="S5" s="2">
-        <v>2.0543100000000001</v>
+        <v>2.105</v>
       </c>
       <c r="T5" s="2">
-        <v>1.2681800000000001</v>
+        <v>1.26254</v>
       </c>
       <c r="U5" s="2">
-        <v>6.5599999999999995E-5</v>
+        <v>6.7000000000000002E-5</v>
       </c>
       <c r="V5" s="2">
-        <v>0.26374999999999998</v>
+        <v>0.27059499999999997</v>
       </c>
       <c r="W5" s="2">
-        <v>0.28713100000000003</v>
+        <v>0.30951299999999998</v>
       </c>
       <c r="X5" s="2">
-        <v>0.48011599999999999</v>
+        <v>0.480323</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.469032</v>
+        <v>0.45538000000000001</v>
       </c>
       <c r="Z5" s="2">
-        <v>824.28499999999997</v>
+        <v>835.36199999999997</v>
       </c>
       <c r="AA5" s="2">
-        <v>0.33063100000000001</v>
+        <v>0.33061600000000002</v>
       </c>
       <c r="AB5" s="2">
-        <v>5.4387400000000002E-2</v>
+        <v>5.43919E-2</v>
       </c>
       <c r="AC5" s="2">
-        <v>1.1391199999999999</v>
+        <v>1.13652</v>
       </c>
       <c r="AD5" s="2">
-        <v>2722.93</v>
+        <v>2682.72</v>
       </c>
       <c r="AE5" s="2">
-        <v>3.3033899999999998</v>
+        <v>3.2114500000000001</v>
       </c>
       <c r="AF5" s="2">
-        <v>15.8322</v>
+        <v>13.8009</v>
       </c>
       <c r="AG5" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>2.1947999999999998E-3</v>
       </c>
       <c r="AH5" s="2">
-        <v>2932.93</v>
+        <v>2902.2</v>
       </c>
       <c r="AI5" s="2">
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <v>2.1096800000000002E-6</v>
+        <v>5.0743099999999997E-6</v>
       </c>
       <c r="AK5" s="2">
-        <v>2.9178799999999999E-7</v>
+        <v>7.0263499999999997E-7</v>
       </c>
       <c r="AL5" s="2">
-        <v>3.3060199999999998E-2</v>
+        <v>4.8766400000000001E-2</v>
       </c>
       <c r="AM5" s="2">
-        <v>12.0739</v>
+        <v>12.0474</v>
       </c>
       <c r="AN5" s="2">
-        <v>1.0572999999999999E-3</v>
+        <v>1.7459999999999999E-3</v>
       </c>
       <c r="AO5" s="2">
-        <v>3.5224100000000002E-10</v>
+        <v>8.5477100000000005E-10</v>
       </c>
       <c r="AP5" s="2">
-        <v>3.90191</v>
+        <v>3.9231799999999999</v>
       </c>
       <c r="AQ5" s="2">
-        <v>6.7398800000000005E-10</v>
+        <v>1.2704799999999999E-9</v>
       </c>
       <c r="AR5" s="2">
-        <v>1.1899099999999999E-2</v>
+        <v>1.7444000000000001E-2</v>
       </c>
       <c r="AS5" s="2">
-        <v>7.6283500000000004E-6</v>
+        <v>1.06E-5</v>
       </c>
       <c r="AT5" s="2">
-        <v>1.5874399999999999E-8</v>
+        <v>3.4683E-8</v>
       </c>
       <c r="AU5" s="2">
-        <v>1.9089899999999999E-16</v>
+        <v>6.5135000000000002E-16</v>
       </c>
       <c r="AV5" s="2">
-        <v>7.0793400000000004E-15</v>
+        <v>1.75413E-14</v>
       </c>
       <c r="AW5" s="2">
-        <v>5.8598999999999997</v>
+        <v>5.8538199999999998</v>
       </c>
       <c r="AX5" s="2">
-        <v>2.54237E-7</v>
+        <v>4.0396399999999998E-7</v>
       </c>
       <c r="AY5" s="2">
-        <v>9.0505699999999997E-9</v>
+        <v>2.0636E-8</v>
       </c>
       <c r="AZ5" s="2">
-        <v>2.9788700000000001</v>
+        <v>2.9788600000000001</v>
       </c>
       <c r="BA5" s="2">
-        <v>1.67168E-15</v>
+        <v>3.5730599999999997E-15</v>
       </c>
       <c r="BB5" s="2">
-        <v>1.7499999999999998E-5</v>
+        <v>3.18E-5</v>
       </c>
       <c r="BC5" s="2">
-        <v>6.1434400000000003E-12</v>
+        <v>1.57278E-11</v>
       </c>
       <c r="BD5" s="2">
-        <v>3.2824E-10</v>
+        <v>5.9350099999999998E-10</v>
       </c>
       <c r="BE5" s="2">
-        <v>9.3152800000000003E-8</v>
+        <v>1.6649100000000001E-7</v>
       </c>
       <c r="BF5" s="2">
-        <v>3.9657499999999999E-7</v>
+        <v>5.4360799999999998E-7</v>
       </c>
       <c r="BG5" s="2">
-        <v>4.2700000000000001E-5</v>
+        <v>3.8600000000000003E-5</v>
       </c>
       <c r="BH5" s="2">
-        <v>3.0519299999999999E-12</v>
+        <v>4.3891600000000003E-12</v>
       </c>
       <c r="BI5" s="2">
-        <v>9.6027800000000006E-16</v>
+        <v>1.11699E-15</v>
       </c>
       <c r="BJ5" s="2">
-        <v>8.8721099999999997E-15</v>
+        <v>1.4771200000000001E-14</v>
       </c>
       <c r="BK5" s="2">
-        <v>3.61292E-9</v>
+        <v>6.6650200000000002E-9</v>
       </c>
       <c r="BL5" s="2">
-        <v>5.7123299999999998E-12</v>
+        <v>1.2067199999999999E-11</v>
       </c>
       <c r="BM5" s="2">
-        <v>3.32092E-19</v>
+        <v>9.9966999999999997E-19</v>
       </c>
       <c r="BN5" s="2">
-        <v>1.4757199999999999E-13</v>
+        <v>2.3281100000000002E-13</v>
       </c>
       <c r="BO5" s="2">
-        <v>6.2863699999999994E-11</v>
+        <v>1.2662799999999999E-10</v>
       </c>
       <c r="BP5" s="2">
-        <v>1.13043E-18</v>
+        <v>3.3249299999999999E-18</v>
       </c>
       <c r="BQ5" s="2">
-        <v>9.8165000000000004E-14</v>
+        <v>2.6619599999999998E-13</v>
       </c>
       <c r="BR5" s="2">
-        <v>6.8717399999999997E-19</v>
+        <v>1.7747599999999999E-18</v>
       </c>
       <c r="BS5" s="2">
-        <v>8.9106000000000005</v>
+        <v>8.9321800000000007</v>
       </c>
       <c r="BT5" s="2">
-        <v>0.62516300000000002</v>
+        <v>0.60357799999999995</v>
       </c>
       <c r="BU5" s="2">
-        <v>1.70798E-12</v>
+        <v>2.7256100000000001E-12</v>
       </c>
       <c r="BV5" s="2">
-        <v>5.2494599999999998E-14</v>
+        <v>5.2228500000000001E-14</v>
       </c>
       <c r="BW5" s="2">
-        <v>3.13621E-13</v>
+        <v>6.8621400000000005E-13</v>
       </c>
       <c r="BX5" s="2">
-        <v>3.3132999999999999E-11</v>
+        <v>5.0129200000000003E-11</v>
       </c>
       <c r="BY5" s="2">
-        <v>9.6274799999999999E-9</v>
+        <v>9.5520399999999996E-9</v>
       </c>
       <c r="BZ5" s="2">
-        <v>1.7572099999999999E-7</v>
+        <v>1.19331E-7</v>
       </c>
       <c r="CA5" s="2">
-        <v>1.6611799999999999E-14</v>
+        <v>2.5841899999999999E-14</v>
       </c>
       <c r="CB5" s="2">
-        <v>8.8430999999999994E-11</v>
+        <v>8.0827800000000003E-11</v>
       </c>
       <c r="CC5" s="2">
-        <v>2.8654199999999998E-14</v>
+        <v>2.7166500000000002E-14</v>
       </c>
       <c r="CD5" s="2">
-        <v>2.0259999999999999E-13</v>
+        <v>1.3450000000000001E-13</v>
       </c>
       <c r="CE5" s="2">
-        <v>2.9134799999999997E-17</v>
+        <v>2.10014E-17</v>
       </c>
       <c r="CF5" s="2">
-        <v>1.26333E-17</v>
+        <v>1.6012299999999999E-17</v>
       </c>
       <c r="CG5" s="2">
-        <v>3.0612800000000001E-6</v>
+        <v>3.9686899999999999E-6</v>
       </c>
       <c r="CH5" s="2">
-        <v>1.6262399999999999E-7</v>
+        <v>2.1276300000000001E-7</v>
       </c>
       <c r="CI5" s="2">
-        <v>1.3017800000000001E-6</v>
+        <v>1.2961500000000001E-6</v>
       </c>
       <c r="CJ5" s="2">
-        <v>3.8382299999999998E-7</v>
+        <v>3.7985800000000001E-7</v>
       </c>
       <c r="CK5" s="2">
-        <v>5.3596500000000003E-13</v>
+        <v>6.5564899999999997E-13</v>
       </c>
       <c r="CL5" s="2">
-        <v>1.7916299999999999E-16</v>
+        <v>2.1671200000000001E-16</v>
       </c>
       <c r="CM5" s="2">
-        <v>4.6935199999999996E-16</v>
+        <v>3.3231500000000001E-16</v>
       </c>
       <c r="CN5" s="2">
-        <v>2.1933E-12</v>
+        <v>4.31841E-12</v>
       </c>
       <c r="CO5" s="2">
-        <v>7.3605899999999995E-14</v>
+        <v>1.18544E-13</v>
       </c>
       <c r="CP5" s="2">
-        <v>3.4366900000000002E-17</v>
+        <v>5.1397900000000003E-17</v>
       </c>
       <c r="CQ5" s="2">
-        <v>3.50277E-17</v>
+        <v>5.9825000000000003E-17</v>
       </c>
       <c r="CR5" s="2">
-        <v>7.7805299999999997E-17</v>
+        <v>9.5887000000000001E-17</v>
       </c>
       <c r="CS5" s="2">
-        <v>8.26338E-8</v>
+        <v>1.15296E-7</v>
       </c>
       <c r="CT5" s="2">
-        <v>1.3860800000000001E-10</v>
+        <v>1.6255499999999999E-10</v>
       </c>
       <c r="CU5" s="2">
-        <v>2.2389899999999999E-12</v>
+        <v>3.4906499999999999E-12</v>
       </c>
       <c r="CV5" s="2">
-        <v>9.7462399999999995E-11</v>
+        <v>1.09265E-10</v>
       </c>
       <c r="CW5" s="2">
-        <v>4.0182700000000002E-10</v>
+        <v>3.1791499999999998E-10</v>
       </c>
       <c r="CX5" s="2">
-        <v>5.2315999999999996E-13</v>
+        <v>6.4957400000000001E-13</v>
       </c>
       <c r="CY5" s="2">
-        <v>4.7000700000000002E-13</v>
+        <v>4.3406999999999999E-13</v>
       </c>
       <c r="CZ5" s="2">
-        <v>2.7730200000000002E-16</v>
+        <v>3.1020199999999998E-16</v>
       </c>
       <c r="DA5" s="2">
-        <v>1.67575E-13</v>
+        <v>1.7743800000000001E-13</v>
       </c>
       <c r="DB5" s="2">
-        <v>1.8755299999999999E-15</v>
+        <v>1.4138E-15</v>
       </c>
       <c r="DC5" s="2">
-        <v>3.1709100000000002E-8</v>
+        <v>3.4232800000000002E-8</v>
       </c>
       <c r="DD5" s="2">
-        <v>5.3910000000000003E-10</v>
+        <v>9.0055900000000003E-10</v>
       </c>
       <c r="DE5" s="2">
-        <v>9.0545599999999997E-13</v>
+        <v>1.43563E-12</v>
       </c>
       <c r="DF5" s="2">
-        <v>1.05788E-16</v>
+        <v>1.8704799999999999E-16</v>
       </c>
       <c r="DG5" s="2">
-        <v>4.8557200000000003E-14</v>
+        <v>5.21367E-14</v>
       </c>
       <c r="DH5" s="2">
-        <v>7.35769E-11</v>
+        <v>1.2269599999999999E-10</v>
       </c>
       <c r="DI5" s="2">
-        <v>1.01E-5</v>
+        <v>9.9479300000000005E-6</v>
       </c>
       <c r="DJ5" s="2">
-        <v>7.7228599999999999E-10</v>
+        <v>1.0177900000000001E-9</v>
       </c>
       <c r="DK5" s="2">
-        <v>2.7147100000000002E-16</v>
+        <v>3.7628699999999999E-16</v>
       </c>
       <c r="DL5" s="2">
-        <v>6.4522300000000001E-16</v>
+        <v>5.3621900000000005E-16</v>
       </c>
       <c r="DM5" s="2">
-        <v>2.8668900000000001E-10</v>
+        <v>3.86686E-10</v>
       </c>
       <c r="DN5" s="2">
-        <v>3.0436700000000001E-9</v>
+        <v>3.5841199999999998E-9</v>
       </c>
       <c r="DO5" s="2">
-        <v>7.3347100000000002E-9</v>
+        <v>2.6945399999999999E-8</v>
       </c>
       <c r="DP5" s="2">
-        <v>4.5450600000000003E-19</v>
+        <v>4.6234300000000004E-18</v>
       </c>
       <c r="DQ5" s="2">
-        <v>4.0420100000000001E-12</v>
+        <v>1.7637199999999999E-11</v>
       </c>
       <c r="DR5" s="2">
-        <v>9.58657E-11</v>
+        <v>5.0632500000000001E-10</v>
       </c>
       <c r="DS5" s="2">
-        <v>4.4501999999999998E-12</v>
+        <v>2.3360299999999999E-11</v>
       </c>
       <c r="DT5" s="2">
-        <v>3.2427100000000002</v>
+        <v>3.2425600000000001</v>
       </c>
       <c r="DU5" s="2">
-        <v>1.24411E-15</v>
+        <v>8.0442100000000006E-15</v>
       </c>
       <c r="DV5" s="2">
-        <v>2.2877399999999998E-9</v>
+        <v>7.2753399999999998E-9</v>
       </c>
       <c r="DW5" s="2">
-        <v>7.6532699999999998E-12</v>
+        <v>2.4124100000000001E-11</v>
       </c>
       <c r="DX5" s="2">
-        <v>6.1466499999999998E-15</v>
+        <v>1.82465E-14</v>
       </c>
       <c r="DY5" s="2">
-        <v>2.31433E-6</v>
+        <v>5.8730700000000002E-6</v>
       </c>
       <c r="DZ5" s="2">
-        <v>3.1052499999999999E-12</v>
+        <v>1.13143E-11</v>
       </c>
       <c r="EA5" s="2">
-        <v>6.8423599999999999E-9</v>
+        <v>1.8616100000000002E-8</v>
       </c>
       <c r="EB5" s="2">
-        <v>5.3761299999999998E-7</v>
+        <v>1.1342300000000001E-6</v>
       </c>
       <c r="EC5" s="2">
-        <v>2.1820299999999999E-8</v>
+        <v>3.6308100000000002E-8</v>
       </c>
       <c r="ED5" s="2">
-        <v>6.8100000000000002E-5</v>
+        <v>1.5239999999999999E-4</v>
       </c>
       <c r="EE5" s="2">
-        <v>1.506E-4</v>
+        <v>2.6350000000000001E-4</v>
       </c>
       <c r="EF5" s="2">
-        <v>1.8569999999999999E-4</v>
+        <v>2.354E-4</v>
       </c>
       <c r="EG5" s="2">
-        <v>1.2030399999999999E-13</v>
+        <v>1.62919E-13</v>
       </c>
       <c r="EH5" s="2">
-        <v>3.0297699999999998E-6</v>
+        <v>6.9398699999999998E-6</v>
       </c>
       <c r="EI5" s="2">
-        <v>5.7425300000000003E-8</v>
+        <v>1.2037299999999999E-7</v>
       </c>
       <c r="EJ5" s="2">
-        <v>6.7765199999999996E-8</v>
+        <v>1.5895700000000001E-7</v>
       </c>
       <c r="EK5" s="2">
-        <v>4.8034500000000001E-11</v>
+        <v>1.07085E-10</v>
       </c>
       <c r="EL5" s="2">
-        <v>2.0655300000000001E-7</v>
+        <v>3.4818199999999999E-7</v>
       </c>
       <c r="EM5" s="2">
-        <v>1.6399999999999999E-5</v>
+        <v>3.18E-5</v>
       </c>
       <c r="EN5" s="2">
-        <v>2.4151399999999998E-6</v>
+        <v>3.6346899999999998E-6</v>
       </c>
       <c r="EO5" s="2">
-        <v>6.3600000000000001E-5</v>
+        <v>8.81E-5</v>
       </c>
       <c r="EP5" s="2">
-        <v>6.4988900000000005E-14</v>
+        <v>2.89236E-13</v>
       </c>
       <c r="EQ5" s="2">
-        <v>3.1265300000000001E-19</v>
+        <v>1.64946E-18</v>
       </c>
       <c r="ER5" s="2">
-        <v>3.4101499999999998E-22</v>
+        <v>1.42589E-21</v>
       </c>
       <c r="ES5" s="2">
-        <v>5.8731199999999999E-22</v>
+        <v>3.5461699999999999E-21</v>
       </c>
       <c r="ET5" s="2">
-        <v>2.54649E-12</v>
+        <v>9.3261899999999995E-12</v>
       </c>
       <c r="EU5" s="2">
-        <v>4.3199199999999999E-18</v>
+        <v>2.77587E-17</v>
       </c>
       <c r="EV5" s="2">
-        <v>4.8137500000000002E-21</v>
+        <v>3.68764E-20</v>
       </c>
       <c r="EW5" s="2">
-        <v>1.40737E-21</v>
+        <v>5.7954600000000003E-21</v>
       </c>
       <c r="EX5" s="2">
-        <v>8.1845000000000002E-16</v>
+        <v>3.6287200000000003E-15</v>
       </c>
       <c r="EY5" s="2">
-        <v>2.1914200000000001E-16</v>
+        <v>4.1944900000000002E-16</v>
       </c>
       <c r="EZ5" s="2">
-        <v>4.9584100000000002E-21</v>
+        <v>2.0379400000000001E-20</v>
       </c>
       <c r="FA5" s="2">
-        <v>6.5940599999999997E-15</v>
+        <v>2.7387799999999999E-14</v>
       </c>
       <c r="FB5" s="2">
-        <v>3.4780099999999998E-21</v>
+        <v>2.14297E-20</v>
       </c>
       <c r="FC5" s="2">
-        <v>2.3544899999999999E-16</v>
+        <v>5.6257100000000001E-16</v>
       </c>
       <c r="FD5" s="2">
-        <v>1.8356000000000001E-10</v>
+        <v>2.2507400000000001E-10</v>
       </c>
       <c r="FE5" s="2">
-        <v>1.8807500000000001E-9</v>
+        <v>5.1407699999999998E-9</v>
       </c>
       <c r="FF5" s="2">
-        <v>2.5316400000000001E-14</v>
+        <v>6.23384E-14</v>
       </c>
       <c r="FG5" s="2">
-        <v>2.2767700000000001E-21</v>
+        <v>1.3412199999999999E-20</v>
       </c>
       <c r="FH5" s="2">
-        <v>2.7041799999999999E-12</v>
+        <v>2.3023E-12</v>
       </c>
       <c r="FI5" s="2">
-        <v>1.3214200000000001E-19</v>
+        <v>3.9604499999999999E-19</v>
       </c>
       <c r="FJ5" s="2">
-        <v>1.42839E-19</v>
+        <v>4.01118E-19</v>
       </c>
       <c r="FK5" s="2">
-        <v>2.10096E-12</v>
+        <v>3.0480900000000002E-12</v>
       </c>
       <c r="FL5" s="2">
-        <v>6.8157599999999995E-16</v>
+        <v>2.0560800000000001E-15</v>
       </c>
       <c r="FM5" s="2">
-        <v>1.69492E-9</v>
+        <v>4.9196499999999997E-9</v>
       </c>
       <c r="FN5" s="2">
-        <v>1.4079599999999999E-15</v>
+        <v>9.7376699999999995E-15</v>
       </c>
       <c r="FO5" s="2">
-        <v>5.1014799999999999E-18</v>
+        <v>3.8181199999999998E-17</v>
       </c>
       <c r="FP5" s="2">
-        <v>1.04654E-8</v>
+        <v>3.8027400000000002E-8</v>
       </c>
     </row>
     <row r="7" spans="1:172" x14ac:dyDescent="0.3">
